--- a/doc/excel/党建/[sample_member_all_update]党员信息一键导入样表.xlsx
+++ b/doc/excel/党建/[sample_member_all_update]党员信息一键导入样表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F49D11-2F69-43B5-9498-EA7269FF5E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE433B4F-85EC-4193-B997-3EA36A96B6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="3780" windowWidth="20025" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,54 +19,13 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{526EB7B7-D596-4F0D-99E4-3438CAD58879}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>必须与组工系统内的分党委编码保持一致</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋兵聪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李萨达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201721070011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分党委所属单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>入党介绍人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,14 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人员类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在分党委编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提交书面申请书时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,6 +84,13 @@
   <si>
     <t>转为正式党员日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党籍状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织关系转入时间</t>
   </si>
   <si>
     <r>
@@ -162,15 +116,9 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>分党委起始编码必须填写</t>
+      <t>分党委起始编码必须填写
+3、导入党员信息之后，会导出一个文件，如果该文件中学工号为空，则需要手动填充，然后再重新导入。</t>
     </r>
-  </si>
-  <si>
-    <t>所属单位编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党支部编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,14 +160,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -260,6 +200,14 @@
     </font>
     <font>
       <sz val="18"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -287,9 +235,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,13 +247,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -314,17 +262,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -640,11 +589,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -652,167 +601,184 @@
     <col min="1" max="1" width="22.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23" style="7" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="26.875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="29.375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="7" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="7" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="7" customWidth="1"/>
-    <col min="14" max="14" width="10.125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="11" style="7" customWidth="1"/>
-    <col min="16" max="16" width="9" style="7"/>
-    <col min="17" max="17" width="8.625" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="7"/>
+    <col min="4" max="4" width="30.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9" style="7"/>
+    <col min="14" max="14" width="8.625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9" style="7"/>
+    <col min="16" max="16" width="18.875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="15.625" style="7" customWidth="1"/>
+    <col min="18" max="19" width="16.125" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="7:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="7:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="7:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="7:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="G20" s="12"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="C7:F12"/>
+    <mergeCell ref="C7:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{3A7B1A03-ACC2-4BA4-B27B-AA0A520133CF}">
+      <formula1>"正式党员,预备党员"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>